--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\development\GitHub\Library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B2261-052B-45EE-BA28-EE429B945510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Denumirea operei</t>
+  </si>
+  <si>
+    <t>Pagina operei</t>
+  </si>
+  <si>
+    <t>W. Shakespeare</t>
+  </si>
+  <si>
+    <t>Stephen A.</t>
+  </si>
+  <si>
+    <t>Serghei Lukyanenko</t>
+  </si>
+  <si>
+    <t>Soneta 10</t>
+  </si>
+  <si>
+    <t>Bazele finantelor corporative</t>
+  </si>
+  <si>
+    <t>Sări</t>
+  </si>
+  <si>
+    <t>pag. 3</t>
+  </si>
+  <si>
+    <t>pag. 40</t>
+  </si>
+  <si>
+    <t>pag. 250</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +396,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\development\GitHub\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B2261-052B-45EE-BA28-EE429B945510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80C646-CE62-49DF-87C4-32CBCB26D8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foaie1!$A$1:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Nr</t>
   </si>
@@ -67,6 +70,36 @@
   </si>
   <si>
     <t>pag. 250</t>
+  </si>
+  <si>
+    <t>M. Eminescu</t>
+  </si>
+  <si>
+    <t>Luceafarul</t>
+  </si>
+  <si>
+    <t>pag. 55</t>
+  </si>
+  <si>
+    <t>Grigorie V</t>
+  </si>
+  <si>
+    <t>O, mama</t>
+  </si>
+  <si>
+    <t>pag. 1</t>
+  </si>
+  <si>
+    <t>Marin Preda</t>
+  </si>
+  <si>
+    <t>Cel mai iubit dintre pământeni</t>
+  </si>
+  <si>
+    <t>pag. 81</t>
+  </si>
+  <si>
+    <t>Soneta 11</t>
   </si>
 </sst>
 </file>
@@ -397,10 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +514,131 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <iconFilter iconSet="3Arrows"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\development\GitHub\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80C646-CE62-49DF-87C4-32CBCB26D8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7D4F9-D7D4-439E-B21B-AE15F24CA0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,18 +137,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +450,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,189 +463,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>45411</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>45411</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>45413</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>45411</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>45411</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>45413</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>45411</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>45411</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>45413</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>45411</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
